--- a/regressionTree.xlsx
+++ b/regressionTree.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-160" yWindow="940" windowWidth="25120" windowHeight="13920" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14340" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
   <si>
     <t>tree_depth</t>
   </si>
@@ -27,14 +27,20 @@
     <t>min_samples_leaf</t>
   </si>
   <si>
-    <t>AUC</t>
+    <t>AUC (A-B)</t>
+  </si>
+  <si>
+    <t>AUC (A, B, A-B)</t>
+  </si>
+  <si>
+    <t>AUC(A, B)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -58,13 +64,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -76,7 +94,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -84,11 +102,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="7"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
+    <cellStyle name="Bad" xfId="7" builtinId="27"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -131,11 +152,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AUC</c:v>
+                  <c:v>AUC (A-B)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cmpd="sng"/>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -207,6 +231,194 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.75794</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AUC (A, B, A-B)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cmpd="sng"/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.82459</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.83934</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.84563</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.84643</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.83736</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.82591</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.81261</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.78655</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.75624</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AUC(A, B)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cmpd="sng"/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.78996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.81819</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.82842</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8404</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.83879</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.82604</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.80241</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.78553</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.75948</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -223,11 +435,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2074210648"/>
-        <c:axId val="2079154360"/>
+        <c:axId val="-2106519800"/>
+        <c:axId val="-2137748312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2074210648"/>
+        <c:axId val="-2106519800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -261,7 +473,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2079154360"/>
+        <c:crossAx val="-2137748312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -269,7 +481,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2079154360"/>
+        <c:axId val="-2137748312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.75"/>
@@ -300,15 +512,23 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2074210648"/>
+        <c:crossAx val="-2106519800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:ln w="6350" cmpd="sng"/>
+  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
@@ -333,7 +553,17 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.171994313210849"/>
+          <c:y val="0.0833333333333333"/>
+          <c:w val="0.770343832020997"/>
+          <c:h val="0.715987897346165"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -346,11 +576,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AUC</c:v>
+                  <c:v>AUC (A-B)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cmpd="sng"/>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -414,11 +647,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2145475528"/>
-        <c:axId val="2097029368"/>
+        <c:axId val="-2147264392"/>
+        <c:axId val="-2107478424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2145475528"/>
+        <c:axId val="-2147264392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -452,7 +685,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2097029368"/>
+        <c:crossAx val="-2107478424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -460,7 +693,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2097029368"/>
+        <c:axId val="-2107478424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.839"/>
@@ -491,7 +724,195 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2145475528"/>
+        <c:crossAx val="-2147264392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AUC (A, B, A-B)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cmpd="sng"/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$M$2:$M$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$2:$N$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.84643</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.83696</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.84013</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.84213</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8393</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2146481288"/>
+        <c:axId val="-2137081992"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2146481288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Minimum Number of Samples on a Leaf Node</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2137081992"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2137081992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>AUC</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2146481288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -565,6 +986,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -895,40 +1346,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="17.83203125" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" customWidth="1"/>
     <col min="9" max="9" width="16.6640625" customWidth="1"/>
     <col min="10" max="10" width="23" customWidth="1"/>
+    <col min="13" max="13" width="15.33203125" customWidth="1"/>
+    <col min="14" max="14" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
       <c r="I1" t="s">
         <v>1</v>
       </c>
       <c r="J1" t="s">
         <v>2</v>
       </c>
+      <c r="M1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>2</v>
       </c>
       <c r="B2">
         <v>0.82459000000000005</v>
       </c>
+      <c r="C2">
+        <v>0.82459000000000005</v>
+      </c>
+      <c r="D2">
+        <v>0.78996</v>
+      </c>
       <c r="H2">
         <v>4</v>
       </c>
@@ -938,27 +1411,54 @@
       <c r="J2">
         <v>0.84103000000000006</v>
       </c>
+      <c r="L2">
+        <v>6</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>0.84643000000000002</v>
+      </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>3</v>
       </c>
       <c r="B3">
         <v>0.83896999999999999</v>
       </c>
+      <c r="C3">
+        <v>0.83933999999999997</v>
+      </c>
+      <c r="D3">
+        <v>0.81818999999999997</v>
+      </c>
       <c r="I3">
         <v>2</v>
       </c>
       <c r="J3">
         <v>0.84087000000000001</v>
       </c>
+      <c r="M3">
+        <v>2</v>
+      </c>
+      <c r="N3">
+        <v>0.83696000000000004</v>
+      </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>4</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>0.84103000000000006</v>
+      </c>
+      <c r="C4">
+        <v>0.84562999999999999</v>
+      </c>
+      <c r="D4">
+        <v>0.82842000000000005</v>
       </c>
       <c r="I4">
         <v>3</v>
@@ -966,65 +1466,119 @@
       <c r="J4">
         <v>0.84062999999999999</v>
       </c>
+      <c r="M4">
+        <v>3</v>
+      </c>
+      <c r="N4">
+        <v>0.84013000000000004</v>
+      </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>5</v>
       </c>
       <c r="B5">
         <v>0.84060000000000001</v>
       </c>
+      <c r="C5" s="1">
+        <v>0.84643000000000002</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.84040000000000004</v>
+      </c>
       <c r="I5">
         <v>4</v>
       </c>
       <c r="J5">
         <v>0.84062999999999999</v>
       </c>
+      <c r="M5">
+        <v>4</v>
+      </c>
+      <c r="N5">
+        <v>0.84213000000000005</v>
+      </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>6</v>
       </c>
       <c r="B6">
         <v>0.82706000000000002</v>
       </c>
+      <c r="C6">
+        <v>0.83735999999999999</v>
+      </c>
+      <c r="D6">
+        <v>0.83879000000000004</v>
+      </c>
       <c r="I6">
         <v>5</v>
       </c>
       <c r="J6">
         <v>0.83930000000000005</v>
       </c>
+      <c r="M6">
+        <v>5</v>
+      </c>
+      <c r="N6">
+        <v>0.83930000000000005</v>
+      </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>7</v>
       </c>
       <c r="B7">
         <v>0.81528999999999996</v>
       </c>
+      <c r="C7">
+        <v>0.82591000000000003</v>
+      </c>
+      <c r="D7">
+        <v>0.82604</v>
+      </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>8</v>
       </c>
       <c r="B8">
         <v>0.80513999999999997</v>
       </c>
+      <c r="C8">
+        <v>0.81261000000000005</v>
+      </c>
+      <c r="D8">
+        <v>0.80240999999999996</v>
+      </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>9</v>
       </c>
       <c r="B9">
         <v>0.78508999999999995</v>
       </c>
+      <c r="C9">
+        <v>0.78654999999999997</v>
+      </c>
+      <c r="D9">
+        <v>0.78552999999999995</v>
+      </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>10</v>
       </c>
       <c r="B10">
         <v>0.75793999999999995</v>
+      </c>
+      <c r="C10">
+        <v>0.75624000000000002</v>
+      </c>
+      <c r="D10">
+        <v>0.75948000000000004</v>
       </c>
     </row>
   </sheetData>
